--- a/po_analysis_by_asin/B083HZ796V_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZ796V_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,22 +618,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B23" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>220</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -645,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,14 +697,6 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>305</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083HZ796V_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZ796V_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,453 @@
       </c>
       <c r="B7" t="n">
         <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.232265561684255</v>
+      </c>
+      <c r="D2" t="n">
+        <v>85.06719518781991</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.437698771952238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>86.88996360811369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.136084444214162</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86.48575293960864</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.222396190101977</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.8654117022361</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.87988594232902</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87.42931962977497</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>44</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4624403581518806</v>
+      </c>
+      <c r="D7" t="n">
+        <v>93.12760801056781</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.306191891070566</v>
+      </c>
+      <c r="D8" t="n">
+        <v>89.19145783982746</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.107314606384973</v>
+      </c>
+      <c r="D9" t="n">
+        <v>87.72508425555175</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.004460618458441</v>
+      </c>
+      <c r="D10" t="n">
+        <v>88.7679640292678</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1778452913631731</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90.35957315563715</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.460514268753922</v>
+      </c>
+      <c r="D12" t="n">
+        <v>97.26632312083132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>46</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.020549007077899</v>
+      </c>
+      <c r="D13" t="n">
+        <v>94.8397173535453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>47</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.511815378292812</v>
+      </c>
+      <c r="D14" t="n">
+        <v>91.70797270005116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.167649262036482</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94.45702813251414</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.796646682899737</v>
+      </c>
+      <c r="D16" t="n">
+        <v>93.86513260102345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>49</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.065597253771691</v>
+      </c>
+      <c r="D17" t="n">
+        <v>94.63200973089894</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.516866285569994</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96.53043661157996</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.727914420272598</v>
+      </c>
+      <c r="D19" t="n">
+        <v>96.94866099837077</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>51</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.037476670497309</v>
+      </c>
+      <c r="D20" t="n">
+        <v>96.34701708825753</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.744315752500687</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100.0972925381883</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>52</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.247183451549431</v>
+      </c>
+      <c r="D22" t="n">
+        <v>97.75464153381289</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>52</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.588196752390227</v>
+      </c>
+      <c r="D23" t="n">
+        <v>99.46312860694228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>53</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.859388511042437</v>
+      </c>
+      <c r="D24" t="n">
+        <v>97.31837504362758</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>53</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.454478839641248</v>
+      </c>
+      <c r="D25" t="n">
+        <v>98.21571782405998</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.533402466730107</v>
+      </c>
+      <c r="D26" t="n">
+        <v>100.7317607389798</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.725128476521015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>100.4474920663119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>55</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.363505862273739</v>
+      </c>
+      <c r="D28" t="n">
+        <v>101.5612983353066</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>55</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.8217259455214</v>
+      </c>
+      <c r="D29" t="n">
+        <v>103.9779155963288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.086322749268242</v>
+      </c>
+      <c r="D30" t="n">
+        <v>99.11764648869305</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083HZ796V_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZ796V_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>40</v>
       </c>
-      <c r="C2" t="n">
-        <v>-7.232265561684255</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.06719518781991</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>42</v>
       </c>
-      <c r="C3" t="n">
-        <v>-3.437698771952238</v>
-      </c>
-      <c r="D3" t="n">
-        <v>86.88996360811369</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>42</v>
       </c>
-      <c r="C4" t="n">
-        <v>-3.136084444214162</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.48575293960864</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>43</v>
       </c>
-      <c r="C5" t="n">
-        <v>-3.222396190101977</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88.8654117022361</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>43</v>
       </c>
-      <c r="C6" t="n">
-        <v>-4.87988594232902</v>
-      </c>
-      <c r="D6" t="n">
-        <v>87.42931962977497</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>44</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.4624403581518806</v>
-      </c>
-      <c r="D7" t="n">
-        <v>93.12760801056781</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>44</v>
       </c>
-      <c r="C8" t="n">
-        <v>-5.306191891070566</v>
-      </c>
-      <c r="D8" t="n">
-        <v>89.19145783982746</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>45</v>
       </c>
-      <c r="C9" t="n">
-        <v>-2.107314606384973</v>
-      </c>
-      <c r="D9" t="n">
-        <v>87.72508425555175</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>45</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.004460618458441</v>
-      </c>
-      <c r="D10" t="n">
-        <v>88.7679640292678</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>45</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1778452913631731</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90.35957315563715</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>46</v>
       </c>
-      <c r="C12" t="n">
-        <v>-3.460514268753922</v>
-      </c>
-      <c r="D12" t="n">
-        <v>97.26632312083132</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>46</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.020549007077899</v>
-      </c>
-      <c r="D13" t="n">
-        <v>94.8397173535453</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>47</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.511815378292812</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91.70797270005116</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>47</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.167649262036482</v>
-      </c>
-      <c r="D15" t="n">
-        <v>94.45702813251414</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>3.796646682899737</v>
-      </c>
-      <c r="D16" t="n">
-        <v>93.86513260102345</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>49</v>
       </c>
-      <c r="C17" t="n">
-        <v>1.065597253771691</v>
-      </c>
-      <c r="D17" t="n">
-        <v>94.63200973089894</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>49</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.516866285569994</v>
-      </c>
-      <c r="D18" t="n">
-        <v>96.53043661157996</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>50</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.727914420272598</v>
-      </c>
-      <c r="D19" t="n">
-        <v>96.94866099837077</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>51</v>
       </c>
-      <c r="C20" t="n">
-        <v>6.037476670497309</v>
-      </c>
-      <c r="D20" t="n">
-        <v>96.34701708825753</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>51</v>
       </c>
-      <c r="C21" t="n">
-        <v>5.744315752500687</v>
-      </c>
-      <c r="D21" t="n">
-        <v>100.0972925381883</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>52</v>
       </c>
-      <c r="C22" t="n">
-        <v>4.247183451549431</v>
-      </c>
-      <c r="D22" t="n">
-        <v>97.75464153381289</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>52</v>
       </c>
-      <c r="C23" t="n">
-        <v>5.588196752390227</v>
-      </c>
-      <c r="D23" t="n">
-        <v>99.46312860694228</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>53</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.859388511042437</v>
-      </c>
-      <c r="D24" t="n">
-        <v>97.31837504362758</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>53</v>
       </c>
-      <c r="C25" t="n">
-        <v>7.454478839641248</v>
-      </c>
-      <c r="D25" t="n">
-        <v>98.21571782405998</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>54</v>
       </c>
-      <c r="C26" t="n">
-        <v>5.533402466730107</v>
-      </c>
-      <c r="D26" t="n">
-        <v>100.7317607389798</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1096,12 +936,6 @@
       <c r="B27" t="n">
         <v>54</v>
       </c>
-      <c r="C27" t="n">
-        <v>5.725128476521015</v>
-      </c>
-      <c r="D27" t="n">
-        <v>100.4474920663119</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1110,12 +944,6 @@
       <c r="B28" t="n">
         <v>55</v>
       </c>
-      <c r="C28" t="n">
-        <v>9.363505862273739</v>
-      </c>
-      <c r="D28" t="n">
-        <v>101.5612983353066</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1124,12 +952,6 @@
       <c r="B29" t="n">
         <v>55</v>
       </c>
-      <c r="C29" t="n">
-        <v>11.8217259455214</v>
-      </c>
-      <c r="D29" t="n">
-        <v>103.9779155963288</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1137,12 +959,6 @@
       </c>
       <c r="B30" t="n">
         <v>56</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.086322749268242</v>
-      </c>
-      <c r="D30" t="n">
-        <v>99.11764648869305</v>
       </c>
     </row>
   </sheetData>
